--- a/data/others/annual_predictions_ea_zts_iff.xlsx
+++ b/data/others/annual_predictions_ea_zts_iff.xlsx
@@ -764,7 +764,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -875,7 +875,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -912,7 +912,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -949,7 +949,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E150" t="n">
